--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2904,4 +2905,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3949,4 +3950,2758 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>259.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7453</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7524</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6457</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5635</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4522</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0473</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6704,4 +6705,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6713,7 +6714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6724,17 +6725,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6744,14 +6765,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58.22</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6760,14 +6803,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.23</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6776,14 +6841,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.82</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6792,13 +6879,1291 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3837</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8062,7 +8063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8073,17 +8074,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8093,14 +8114,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.23</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8109,14 +8152,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58.22</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8125,14 +8190,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.23</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8141,14 +8228,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.82</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8157,13 +8266,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2212</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9411,7 +9412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9422,17 +9423,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9442,14 +9463,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.15</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9458,14 +9501,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.23</v>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9474,14 +9539,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.22</v>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9490,14 +9577,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.23</v>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9506,14 +9615,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.82</v>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -9522,13 +9653,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>22.15</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>27.23</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>58.22</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>6.23</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>6.82</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.48</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1332,1354 +1709,6 @@
       </c>
       <c r="H19" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>77.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4346</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8272</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>52.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5397</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001616</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实环保低碳股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>59.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3985</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4672</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2212</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009909</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实动力先锋混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>29.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1066</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012852</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实远见先锋一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8446</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7200</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003985</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6793</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011643</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6773</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009869</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6710</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013160</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信碳中和混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6435</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5924</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3573</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3303</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013161</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>创金合信碳中和混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2460</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005076</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2300</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011146</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1455</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009870</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1451</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>63.10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1160</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009910</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实动力先锋混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011147</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0758</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>012853</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实远见先锋一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011644</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010157</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.74</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010158</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.74</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2744,36 +1773,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.49</t>
+          <t>77.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5719</t>
+          <t>3.4346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2782,36 +1811,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>42.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.5976</t>
+          <t>2.8272</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2830,26 +1859,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>52.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.4894</t>
+          <t>2.5397</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2858,36 +1887,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009909</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合A</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.20</t>
+          <t>59.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.3026</t>
+          <t>2.3985</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2896,36 +1925,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.37</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.5767</t>
+          <t>1.4672</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2934,32 +1963,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>96.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.3709</t>
+          <t>1.2212</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2972,36 +2001,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>009909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>嘉实动力先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.11</t>
+          <t>29.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5168</t>
+          <t>1.1066</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3020,26 +2049,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30.67</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.1563</t>
+          <t>0.8446</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3048,36 +2077,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011643</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.31</t>
+          <t>18.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9481</t>
+          <t>0.7200</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3096,22 +2125,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7512</t>
+          <t>0.6793</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3124,32 +2153,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>011643</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>91.59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5729</t>
+          <t>0.6773</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3162,36 +2191,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3837</t>
+          <t>0.6710</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3200,36 +2229,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>013160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信优选回报灵活配置混合</t>
+          <t>创金合信碳中和混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3586</t>
+          <t>0.6435</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3238,36 +2267,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>23.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.64</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2593</t>
+          <t>0.5924</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -3276,32 +2305,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2315</t>
+          <t>0.3573</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3314,36 +2343,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>000327</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>南方潜力新蓝筹混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2183</t>
+          <t>0.3303</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -3352,36 +2381,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>013161</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>创金合信碳中和混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.2460</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -3390,36 +2419,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009910</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合C</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1526</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -3428,36 +2457,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0965</t>
+          <t>0.2006</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -3466,36 +2495,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.1455</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3504,36 +2533,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012853</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实远见先锋一年持有期混合C</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0788</t>
+          <t>0.1451</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3542,36 +2571,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>006977</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>农银汇理海棠三年定期开放混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>70.95</t>
+          <t>63.10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0782</t>
+          <t>0.1160</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3580,36 +2609,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>009910</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>嘉实动力先锋混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -3618,32 +2647,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011644</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -3656,36 +2685,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>003493</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>申万菱信安鑫优选混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -3694,32 +2723,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001148</t>
+          <t>012853</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合A</t>
+          <t>嘉实远见先锋一年持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3732,36 +2761,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001724</t>
+          <t>011644</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合C</t>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>91.59</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -3770,36 +2799,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002149</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉实新优选灵活配置混合</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3808,36 +2837,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010597</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合A</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>37.31</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -3846,36 +2875,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001198</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -3884,36 +2913,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002163</t>
+          <t>003512</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合C</t>
+          <t>申万菱信安鑫优选混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3922,36 +2951,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010598</t>
+          <t>002149</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合C</t>
+          <t>嘉实新优选灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>37.31</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -3960,32 +2989,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3998,36 +3027,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4036,6 +3065,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3837</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6789,7 +7166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7833,7 +8210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8687,7 +9064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688388-嘉元科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.46</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>22.15</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>27.23</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>58.22</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>6.23</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>6.82</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1637 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2241,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1709,1354 +3655,6 @@
       </c>
       <c r="H19" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>77.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4346</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8272</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>52.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5397</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001616</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实环保低碳股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>59.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3985</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4672</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2212</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009909</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实动力先锋混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>29.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1066</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012852</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实远见先锋一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8446</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7200</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003985</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6793</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011643</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6773</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009869</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6710</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013160</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信碳中和混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6435</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5924</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3573</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3303</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013161</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>创金合信碳中和混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2460</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005076</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2300</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011146</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1455</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009870</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1451</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>63.10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1160</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009910</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实动力先锋混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011147</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信气候变化责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0758</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>012853</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实远见先锋一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011644</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010157</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.74</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010158</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.74</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3121,36 +3719,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.49</t>
+          <t>77.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5719</t>
+          <t>3.4346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3159,36 +3757,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>42.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.5976</t>
+          <t>2.8272</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3207,26 +3805,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>52.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.4894</t>
+          <t>2.5397</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3235,36 +3833,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009909</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合A</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.20</t>
+          <t>59.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.3026</t>
+          <t>2.3985</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3273,36 +3871,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.37</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.5767</t>
+          <t>1.4672</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3311,32 +3909,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>96.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.3709</t>
+          <t>1.2212</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3349,36 +3947,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>009909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>嘉实动力先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.11</t>
+          <t>29.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5168</t>
+          <t>1.1066</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3397,26 +3995,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30.67</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.1563</t>
+          <t>0.8446</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3425,36 +4023,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011643</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.31</t>
+          <t>18.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9481</t>
+          <t>0.7200</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3473,22 +4071,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7512</t>
+          <t>0.6793</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3501,32 +4099,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>011643</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>91.59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5729</t>
+          <t>0.6773</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3539,36 +4137,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3837</t>
+          <t>0.6710</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3577,36 +4175,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>013160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信优选回报灵活配置混合</t>
+          <t>创金合信碳中和混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3586</t>
+          <t>0.6435</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3615,36 +4213,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>23.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.64</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2593</t>
+          <t>0.5924</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -3653,32 +4251,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2315</t>
+          <t>0.3573</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3691,36 +4289,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>000327</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>南方潜力新蓝筹混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2183</t>
+          <t>0.3303</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -3729,36 +4327,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>013161</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>创金合信碳中和混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.2460</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -3767,36 +4365,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009910</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合C</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1526</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -3805,36 +4403,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0965</t>
+          <t>0.2006</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -3843,36 +4441,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.1455</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3881,36 +4479,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012853</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实远见先锋一年持有期混合C</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0788</t>
+          <t>0.1451</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3919,36 +4517,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>006977</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>农银汇理海棠三年定期开放混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>70.95</t>
+          <t>63.10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0782</t>
+          <t>0.1160</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3957,36 +4555,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>009910</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>嘉实动力先锋混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -3995,32 +4593,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011644</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -4033,36 +4631,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>003493</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>申万菱信安鑫优选混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -4071,32 +4669,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001148</t>
+          <t>012853</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合A</t>
+          <t>嘉实远见先锋一年持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -4109,36 +4707,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001724</t>
+          <t>011644</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合C</t>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>91.59</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -4147,36 +4745,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002149</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉实新优选灵活配置混合</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -4185,36 +4783,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010597</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合A</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>37.31</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -4223,36 +4821,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001198</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -4261,36 +4859,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002163</t>
+          <t>003512</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合C</t>
+          <t>申万菱信安鑫优选混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4299,36 +4897,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010598</t>
+          <t>002149</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>创金合信景雯灵活配置混合C</t>
+          <t>嘉实新优选灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>37.31</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -4337,32 +4935,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4375,36 +4973,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4413,6 +5011,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3837</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7166,7 +9112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8210,7 +10156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9062,1611 +11008,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0619</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003984</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0158</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002083</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8796</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519196</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8296</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6692</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519195</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6382</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5542</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002084</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4499</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4185</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519158</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华趋势领航混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2899</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001760</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2483</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000584</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新华鑫益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2445</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519091</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>新华泛资源优势混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2230</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519089</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华优选成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2087</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2079</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>217001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商安泰混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>73.39</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1814</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1546</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003985</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1504</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1406</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1240</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1082</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007318</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银民丰回报混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0866</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>217020</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.86</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003132</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>德邦新回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001148</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0728</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001201</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>29.05</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0721</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001727</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>29.05</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0698</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008245</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>000530</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>95.21</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008246</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002417</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>95.21</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>